--- a/data/trans_orig/P21D4_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P21D4_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83F3ED73-5FBE-456F-B0A6-5E74B8131CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5E71D77-7D77-4CCB-A57E-0354DD479686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B92F9156-606F-43C3-9ADF-3AD36116F7AB}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6A9C0682-8AA0-409C-A905-85E635743DF0}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="279">
-  <si>
-    <t>Población que, necesitandolo, no pudo recibir atención médica mental (psicólogo) en 2023 (Tasa respuesta: 43,83%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="278">
+  <si>
+    <t>Población que, necesitándolo, no pudo recibir atención médica mental (psicólogo) en 2023 (Tasa respuesta: 43,83%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,7 +74,7 @@
     <t>98,62%</t>
   </si>
   <si>
-    <t>95,31%</t>
+    <t>95,56%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -83,19 +83,19 @@
     <t>96,87%</t>
   </si>
   <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
   </si>
   <si>
     <t>97,78%</t>
   </si>
   <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
   </si>
   <si>
     <t>Sí lo pudo recibir</t>
@@ -107,766 +107,763 @@
     <t>0,0%</t>
   </si>
   <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>No lo pudo recibir por otros motivos</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>No lo pudo recibir por motivos económicos</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
     <t>4,69%</t>
   </si>
   <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>No lo pudo recibir por otros motivos</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>No lo pudo recibir por motivos económicos</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>52,69%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>70,39%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
   </si>
   <si>
     <t>0,18%</t>
   </si>
   <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
   </si>
   <si>
     <t>0,62%</t>
   </si>
   <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>54,74%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>66,89%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>44,77%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
   </si>
   <si>
     <t>0,55%</t>
@@ -1284,7 +1281,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A3F06C-EDE1-41BB-97AB-EE304629455C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BF5693D-FA09-429E-AA60-E9D2B250982E}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1477,10 +1474,10 @@
         <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>10</v>
@@ -1489,19 +1486,19 @@
         <v>5246</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -1513,10 +1510,10 @@
         <v>22</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -1528,10 +1525,10 @@
         <v>22</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -1543,16 +1540,16 @@
         <v>22</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -1564,10 +1561,10 @@
         <v>22</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -1576,13 +1573,13 @@
         <v>159</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -1591,13 +1588,13 @@
         <v>159</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1612,13 +1609,13 @@
         <v>125492</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H8" s="7">
         <v>233</v>
@@ -1627,13 +1624,13 @@
         <v>117523</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M8" s="7">
         <v>386</v>
@@ -1642,18 +1639,18 @@
         <v>243015</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -1665,13 +1662,13 @@
         <v>182679</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="H9" s="7">
         <v>283</v>
@@ -1680,13 +1677,13 @@
         <v>223368</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="M9" s="7">
         <v>424</v>
@@ -1695,13 +1692,13 @@
         <v>406047</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1716,13 +1713,13 @@
         <v>24266</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>29</v>
@@ -1731,13 +1728,13 @@
         <v>23602</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>44</v>
@@ -1746,19 +1743,19 @@
         <v>47868</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="7">
         <v>3</v>
@@ -1767,13 +1764,13 @@
         <v>3251</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="H11" s="7">
         <v>9</v>
@@ -1809,7 +1806,7 @@
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="7">
         <v>1</v>
@@ -1869,13 +1866,13 @@
         <v>211273</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H13" s="7">
         <v>324</v>
@@ -1884,13 +1881,13 @@
         <v>253973</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M13" s="7">
         <v>484</v>
@@ -1899,13 +1896,13 @@
         <v>465246</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2015,7 +2012,7 @@
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="7">
         <v>0</v>
@@ -2027,7 +2024,7 @@
         <v>22</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>95</v>
@@ -2066,7 +2063,7 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17" s="7">
         <v>1</v>
@@ -2093,10 +2090,10 @@
         <v>102</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -2105,13 +2102,13 @@
         <v>6405</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2126,13 +2123,13 @@
         <v>97664</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H18" s="7">
         <v>223</v>
@@ -2141,13 +2138,13 @@
         <v>155266</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M18" s="7">
         <v>336</v>
@@ -2156,18 +2153,18 @@
         <v>252930</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2179,13 +2176,13 @@
         <v>134578</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="H19" s="7">
         <v>252</v>
@@ -2194,13 +2191,13 @@
         <v>191418</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="M19" s="7">
         <v>372</v>
@@ -2209,13 +2206,13 @@
         <v>325996</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2230,13 +2227,13 @@
         <v>10041</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="H20" s="7">
         <v>25</v>
@@ -2245,13 +2242,13 @@
         <v>15070</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="M20" s="7">
         <v>33</v>
@@ -2260,19 +2257,19 @@
         <v>25111</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" s="7">
         <v>1</v>
@@ -2281,13 +2278,13 @@
         <v>786</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -2296,13 +2293,13 @@
         <v>673</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M21" s="7">
         <v>2</v>
@@ -2311,19 +2308,19 @@
         <v>1459</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C22" s="7">
         <v>2</v>
@@ -2332,13 +2329,13 @@
         <v>1746</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2350,10 +2347,10 @@
         <v>22</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -2362,13 +2359,13 @@
         <v>1746</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2383,13 +2380,13 @@
         <v>147150</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H23" s="7">
         <v>278</v>
@@ -2398,13 +2395,13 @@
         <v>207161</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M23" s="7">
         <v>409</v>
@@ -2413,18 +2410,18 @@
         <v>354311</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2436,13 +2433,13 @@
         <v>73103</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="H24" s="7">
         <v>153</v>
@@ -2451,13 +2448,13 @@
         <v>73145</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M24" s="7">
         <v>255</v>
@@ -2466,13 +2463,13 @@
         <v>146247</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2487,13 +2484,13 @@
         <v>3602</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -2502,13 +2499,13 @@
         <v>4480</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>152</v>
+        <v>65</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="M25" s="7">
         <v>10</v>
@@ -2517,19 +2514,19 @@
         <v>8082</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26" s="7">
         <v>2</v>
@@ -2538,13 +2535,13 @@
         <v>1337</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -2553,13 +2550,13 @@
         <v>451</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -2568,19 +2565,19 @@
         <v>1788</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>106</v>
+        <v>158</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C27" s="7">
         <v>0</v>
@@ -2592,10 +2589,10 @@
         <v>22</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H27" s="7">
         <v>3</v>
@@ -2604,13 +2601,13 @@
         <v>1281</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M27" s="7">
         <v>3</v>
@@ -2619,13 +2616,13 @@
         <v>1281</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2640,13 +2637,13 @@
         <v>78042</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H28" s="7">
         <v>163</v>
@@ -2655,13 +2652,13 @@
         <v>79356</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M28" s="7">
         <v>271</v>
@@ -2670,18 +2667,18 @@
         <v>157398</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2693,13 +2690,13 @@
         <v>128178</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H29" s="7">
         <v>188</v>
@@ -2708,13 +2705,13 @@
         <v>113379</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M29" s="7">
         <v>362</v>
@@ -2723,13 +2720,13 @@
         <v>241555</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2744,13 +2741,13 @@
         <v>1931</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H30" s="7">
         <v>11</v>
@@ -2759,13 +2756,13 @@
         <v>5657</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M30" s="7">
         <v>14</v>
@@ -2774,19 +2771,19 @@
         <v>7588</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C31" s="7">
         <v>0</v>
@@ -2798,10 +2795,10 @@
         <v>22</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -2810,13 +2807,13 @@
         <v>374</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="M31" s="7">
         <v>1</v>
@@ -2825,19 +2822,19 @@
         <v>374</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C32" s="7">
         <v>0</v>
@@ -2849,10 +2846,10 @@
         <v>22</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2864,10 +2861,10 @@
         <v>22</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -2879,7 +2876,7 @@
         <v>22</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>68</v>
@@ -2897,13 +2894,13 @@
         <v>130109</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H33" s="7">
         <v>200</v>
@@ -2912,13 +2909,13 @@
         <v>119410</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M33" s="7">
         <v>377</v>
@@ -2927,18 +2924,18 @@
         <v>249518</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -2950,13 +2947,13 @@
         <v>292477</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="H34" s="7">
         <v>394</v>
@@ -2965,13 +2962,13 @@
         <v>292074</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M34" s="7">
         <v>661</v>
@@ -2980,13 +2977,13 @@
         <v>584552</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3001,13 +2998,13 @@
         <v>16125</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="H35" s="7">
         <v>32</v>
@@ -3016,13 +3013,13 @@
         <v>26411</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M35" s="7">
         <v>47</v>
@@ -3031,19 +3028,19 @@
         <v>42536</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C36" s="7">
         <v>3</v>
@@ -3052,13 +3049,13 @@
         <v>3470</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="F36" s="7" t="s">
-        <v>214</v>
-      </c>
       <c r="G36" s="7" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="H36" s="7">
         <v>6</v>
@@ -3067,13 +3064,13 @@
         <v>6130</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>216</v>
+        <v>135</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>70</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="M36" s="7">
         <v>9</v>
@@ -3082,19 +3079,19 @@
         <v>9599</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>135</v>
+        <v>216</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>24</v>
+        <v>217</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C37" s="7">
         <v>0</v>
@@ -3106,10 +3103,10 @@
         <v>22</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H37" s="7">
         <v>4</v>
@@ -3118,13 +3115,13 @@
         <v>3876</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="M37" s="7">
         <v>4</v>
@@ -3133,13 +3130,13 @@
         <v>3876</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3154,13 +3151,13 @@
         <v>312072</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H38" s="7">
         <v>436</v>
@@ -3169,13 +3166,13 @@
         <v>328491</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M38" s="7">
         <v>721</v>
@@ -3184,18 +3181,18 @@
         <v>640563</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3207,28 +3204,28 @@
         <v>345340</v>
       </c>
       <c r="E39" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G39" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="H39" s="7">
         <v>476</v>
       </c>
       <c r="I39" s="7">
-        <v>390448</v>
+        <v>390447</v>
       </c>
       <c r="J39" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L39" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="M39" s="7">
         <v>789</v>
@@ -3237,13 +3234,13 @@
         <v>735787</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>235</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3258,28 +3255,28 @@
         <v>67409</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H40" s="7">
         <v>35</v>
       </c>
       <c r="I40" s="7">
-        <v>27617</v>
+        <v>27616</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M40" s="7">
         <v>52</v>
@@ -3288,19 +3285,19 @@
         <v>95026</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C41" s="7">
         <v>3</v>
@@ -3309,13 +3306,13 @@
         <v>3981</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H41" s="7">
         <v>2</v>
@@ -3324,13 +3321,13 @@
         <v>1760</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="M41" s="7">
         <v>5</v>
@@ -3339,19 +3336,19 @@
         <v>5741</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="P41" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q41" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C42" s="7">
         <v>0</v>
@@ -3363,10 +3360,10 @@
         <v>22</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H42" s="7">
         <v>2</v>
@@ -3375,13 +3372,13 @@
         <v>1530</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>251</v>
+        <v>31</v>
       </c>
       <c r="M42" s="7">
         <v>2</v>
@@ -3390,13 +3387,13 @@
         <v>1530</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>74</v>
+        <v>250</v>
       </c>
       <c r="P42" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>252</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3411,28 +3408,28 @@
         <v>416730</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H43" s="7">
         <v>515</v>
       </c>
       <c r="I43" s="7">
-        <v>421354</v>
+        <v>421353</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M43" s="7">
         <v>848</v>
@@ -3441,13 +3438,13 @@
         <v>838084</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3464,13 +3461,13 @@
         <v>1373483</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>255</v>
+        <v>82</v>
       </c>
       <c r="H44" s="7">
         <v>2171</v>
@@ -3479,13 +3476,13 @@
         <v>1538361</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="M44" s="7">
         <v>3548</v>
@@ -3494,13 +3491,13 @@
         <v>2911844</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3515,13 +3512,13 @@
         <v>128701</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="H45" s="7">
         <v>158</v>
@@ -3530,13 +3527,13 @@
         <v>113918</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>267</v>
+        <v>183</v>
       </c>
       <c r="M45" s="7">
         <v>225</v>
@@ -3545,19 +3542,19 @@
         <v>242620</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C46" s="7">
         <v>12</v>
@@ -3566,13 +3563,13 @@
         <v>12825</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>247</v>
+        <v>268</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="H46" s="7">
         <v>22</v>
@@ -3581,13 +3578,13 @@
         <v>16073</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>223</v>
+        <v>269</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>157</v>
+        <v>270</v>
       </c>
       <c r="M46" s="7">
         <v>34</v>
@@ -3596,10 +3593,10 @@
         <v>28897</v>
       </c>
       <c r="O46" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="P46" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="P46" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="Q46" s="7" t="s">
         <v>273</v>
@@ -3608,7 +3605,7 @@
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C47" s="7">
         <v>4</v>
@@ -3617,13 +3614,13 @@
         <v>3522</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="F47" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G47" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="H47" s="7">
         <v>21</v>
@@ -3632,13 +3629,13 @@
         <v>14182</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M47" s="7">
         <v>25</v>
@@ -3647,13 +3644,13 @@
         <v>17704</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>250</v>
+        <v>213</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>96</v>
+        <v>267</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3668,13 +3665,13 @@
         <v>1518531</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H48" s="7">
         <v>2372</v>
@@ -3683,13 +3680,13 @@
         <v>1682534</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M48" s="7">
         <v>3832</v>
@@ -3698,18 +3695,18 @@
         <v>3201065</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P21D4_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P21D4_2023-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5E71D77-7D77-4CCB-A57E-0354DD479686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{75B50FC9-145F-42D8-AB8B-9237896A5BD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6A9C0682-8AA0-409C-A905-85E635743DF0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F5E1F697-4B47-4423-9077-139982AD85A1}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1281,7 +1281,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BF5693D-FA09-429E-AA60-E9D2B250982E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3B2FC3E-F2C3-4ABE-B8DB-7FF9019EF60F}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P21D4_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P21D4_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75B50FC9-145F-42D8-AB8B-9237896A5BD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C516BA51-0005-4625-B3D1-01BAB977E9D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F5E1F697-4B47-4423-9077-139982AD85A1}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" xr2:uid="{5DD58123-DBF8-49E1-A0C8-BADD4BD80CCC}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="279">
   <si>
     <t>Población que, necesitándolo, no pudo recibir atención médica mental (psicólogo) en 2023 (Tasa respuesta: 43,83%)</t>
   </si>
@@ -74,7 +74,7 @@
     <t>98,62%</t>
   </si>
   <si>
-    <t>95,56%</t>
+    <t>95,31%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -83,19 +83,19 @@
     <t>96,87%</t>
   </si>
   <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
   </si>
   <si>
     <t>97,78%</t>
   </si>
   <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
   </si>
   <si>
     <t>Sí lo pudo recibir</t>
@@ -107,22 +107,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>4,44%</t>
+    <t>4,69%</t>
   </si>
   <si>
     <t>2,99%</t>
   </si>
   <si>
-    <t>5,74%</t>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
   </si>
   <si>
     <t>2,16%</t>
   </si>
   <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
   </si>
   <si>
     <t>No lo pudo recibir por otros motivos</t>
@@ -146,13 +149,13 @@
     <t>0,14%</t>
   </si>
   <si>
-    <t>0,7%</t>
+    <t>0,74%</t>
   </si>
   <si>
     <t>0,07%</t>
   </si>
   <si>
-    <t>0,28%</t>
+    <t>0,33%</t>
   </si>
   <si>
     <t>100%</t>
@@ -164,19 +167,19 @@
     <t>86,47%</t>
   </si>
   <si>
-    <t>78,49%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
   </si>
   <si>
     <t>87,95%</t>
   </si>
   <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
   </si>
   <si>
     <t>87,28%</t>
@@ -185,31 +188,31 @@
     <t>83,16%</t>
   </si>
   <si>
-    <t>90,24%</t>
+    <t>90,55%</t>
   </si>
   <si>
     <t>11,49%</t>
   </si>
   <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
   </si>
   <si>
     <t>9,29%</t>
   </si>
   <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
   </si>
   <si>
     <t>10,29%</t>
   </si>
   <si>
-    <t>7,38%</t>
+    <t>7,42%</t>
   </si>
   <si>
     <t>14,23%</t>
@@ -221,31 +224,28 @@
     <t>0,43%</t>
   </si>
   <si>
-    <t>4,14%</t>
-  </si>
-  <si>
     <t>2,12%</t>
   </si>
   <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
   </si>
   <si>
     <t>1,85%</t>
   </si>
   <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
   </si>
   <si>
     <t>0,51%</t>
   </si>
   <si>
-    <t>2,67%</t>
+    <t>2,2%</t>
   </si>
   <si>
     <t>0,64%</t>
@@ -254,616 +254,619 @@
     <t>0,06%</t>
   </si>
   <si>
-    <t>2,1%</t>
+    <t>2,23%</t>
   </si>
   <si>
     <t>0,58%</t>
   </si>
   <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
     <t>0,17%</t>
   </si>
   <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>54,74%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>66,89%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>44,77%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
   </si>
   <si>
     <t>0,63%</t>
   </si>
   <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>76,32%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
   </si>
   <si>
     <t>1,34%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>52,69%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>70,39%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>77,32%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
   </si>
   <si>
     <t>0,55%</t>
@@ -1281,7 +1284,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3B2FC3E-F2C3-4ABE-B8DB-7FF9019EF60F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DA2E992-20CD-4751-B766-5A2775CAE772}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1474,10 +1477,10 @@
         <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>10</v>
@@ -1486,19 +1489,19 @@
         <v>5246</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -1510,10 +1513,10 @@
         <v>22</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -1525,10 +1528,10 @@
         <v>22</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -1540,16 +1543,16 @@
         <v>22</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -1561,10 +1564,10 @@
         <v>22</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -1573,13 +1576,13 @@
         <v>159</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -1588,13 +1591,13 @@
         <v>159</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1609,13 +1612,13 @@
         <v>125492</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H8" s="7">
         <v>233</v>
@@ -1624,13 +1627,13 @@
         <v>117523</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M8" s="7">
         <v>386</v>
@@ -1639,18 +1642,18 @@
         <v>243015</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -1662,13 +1665,13 @@
         <v>182679</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H9" s="7">
         <v>283</v>
@@ -1677,13 +1680,13 @@
         <v>223368</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M9" s="7">
         <v>424</v>
@@ -1692,13 +1695,13 @@
         <v>406047</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1713,13 +1716,13 @@
         <v>24266</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>29</v>
@@ -1728,13 +1731,13 @@
         <v>23602</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>44</v>
@@ -1743,19 +1746,19 @@
         <v>47868</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" s="7">
         <v>3</v>
@@ -1764,13 +1767,13 @@
         <v>3251</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="H11" s="7">
         <v>9</v>
@@ -1806,7 +1809,7 @@
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" s="7">
         <v>1</v>
@@ -1866,13 +1869,13 @@
         <v>211273</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H13" s="7">
         <v>324</v>
@@ -1881,13 +1884,13 @@
         <v>253973</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M13" s="7">
         <v>484</v>
@@ -1896,13 +1899,13 @@
         <v>465246</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2012,7 +2015,7 @@
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" s="7">
         <v>0</v>
@@ -2024,7 +2027,7 @@
         <v>22</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>95</v>
@@ -2063,7 +2066,7 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17" s="7">
         <v>1</v>
@@ -2090,10 +2093,10 @@
         <v>102</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -2102,13 +2105,13 @@
         <v>6405</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2123,13 +2126,13 @@
         <v>97664</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H18" s="7">
         <v>223</v>
@@ -2138,13 +2141,13 @@
         <v>155266</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M18" s="7">
         <v>336</v>
@@ -2153,18 +2156,18 @@
         <v>252930</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2176,13 +2179,13 @@
         <v>134578</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H19" s="7">
         <v>252</v>
@@ -2191,13 +2194,13 @@
         <v>191418</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M19" s="7">
         <v>372</v>
@@ -2206,13 +2209,13 @@
         <v>325996</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2227,13 +2230,13 @@
         <v>10041</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H20" s="7">
         <v>25</v>
@@ -2242,13 +2245,13 @@
         <v>15070</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M20" s="7">
         <v>33</v>
@@ -2257,19 +2260,19 @@
         <v>25111</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C21" s="7">
         <v>1</v>
@@ -2278,13 +2281,13 @@
         <v>786</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -2293,13 +2296,13 @@
         <v>673</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M21" s="7">
         <v>2</v>
@@ -2308,19 +2311,19 @@
         <v>1459</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22" s="7">
         <v>2</v>
@@ -2329,13 +2332,13 @@
         <v>1746</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2347,10 +2350,10 @@
         <v>22</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -2359,13 +2362,13 @@
         <v>1746</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2380,13 +2383,13 @@
         <v>147150</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H23" s="7">
         <v>278</v>
@@ -2395,13 +2398,13 @@
         <v>207161</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M23" s="7">
         <v>409</v>
@@ -2410,18 +2413,18 @@
         <v>354311</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2433,13 +2436,13 @@
         <v>73103</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H24" s="7">
         <v>153</v>
@@ -2448,13 +2451,13 @@
         <v>73145</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M24" s="7">
         <v>255</v>
@@ -2463,13 +2466,13 @@
         <v>146247</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2484,13 +2487,13 @@
         <v>3602</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -2499,13 +2502,13 @@
         <v>4480</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>65</v>
+        <v>152</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="M25" s="7">
         <v>10</v>
@@ -2514,19 +2517,19 @@
         <v>8082</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C26" s="7">
         <v>2</v>
@@ -2535,13 +2538,13 @@
         <v>1337</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -2550,13 +2553,13 @@
         <v>451</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -2565,19 +2568,19 @@
         <v>1788</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>158</v>
+        <v>106</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27" s="7">
         <v>0</v>
@@ -2589,10 +2592,10 @@
         <v>22</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H27" s="7">
         <v>3</v>
@@ -2601,13 +2604,13 @@
         <v>1281</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M27" s="7">
         <v>3</v>
@@ -2616,13 +2619,13 @@
         <v>1281</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2637,13 +2640,13 @@
         <v>78042</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H28" s="7">
         <v>163</v>
@@ -2652,13 +2655,13 @@
         <v>79356</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M28" s="7">
         <v>271</v>
@@ -2667,18 +2670,18 @@
         <v>157398</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2690,13 +2693,13 @@
         <v>128178</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H29" s="7">
         <v>188</v>
@@ -2705,13 +2708,13 @@
         <v>113379</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M29" s="7">
         <v>362</v>
@@ -2720,13 +2723,13 @@
         <v>241555</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2741,13 +2744,13 @@
         <v>1931</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H30" s="7">
         <v>11</v>
@@ -2756,13 +2759,13 @@
         <v>5657</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M30" s="7">
         <v>14</v>
@@ -2771,19 +2774,19 @@
         <v>7588</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C31" s="7">
         <v>0</v>
@@ -2795,10 +2798,10 @@
         <v>22</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -2807,13 +2810,13 @@
         <v>374</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="M31" s="7">
         <v>1</v>
@@ -2822,19 +2825,19 @@
         <v>374</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32" s="7">
         <v>0</v>
@@ -2846,10 +2849,10 @@
         <v>22</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2861,10 +2864,10 @@
         <v>22</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -2876,7 +2879,7 @@
         <v>22</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>68</v>
@@ -2894,13 +2897,13 @@
         <v>130109</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H33" s="7">
         <v>200</v>
@@ -2909,13 +2912,13 @@
         <v>119410</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M33" s="7">
         <v>377</v>
@@ -2924,18 +2927,18 @@
         <v>249518</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -2947,13 +2950,13 @@
         <v>292477</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H34" s="7">
         <v>394</v>
@@ -2962,13 +2965,13 @@
         <v>292074</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M34" s="7">
         <v>661</v>
@@ -2977,13 +2980,13 @@
         <v>584552</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2998,13 +3001,13 @@
         <v>16125</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H35" s="7">
         <v>32</v>
@@ -3013,13 +3016,13 @@
         <v>26411</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M35" s="7">
         <v>47</v>
@@ -3028,19 +3031,19 @@
         <v>42536</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C36" s="7">
         <v>3</v>
@@ -3049,13 +3052,13 @@
         <v>3470</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="H36" s="7">
         <v>6</v>
@@ -3064,13 +3067,13 @@
         <v>6130</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>135</v>
+        <v>216</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>70</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="M36" s="7">
         <v>9</v>
@@ -3079,19 +3082,19 @@
         <v>9599</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>216</v>
+        <v>135</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>217</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37" s="7">
         <v>0</v>
@@ -3103,10 +3106,10 @@
         <v>22</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H37" s="7">
         <v>4</v>
@@ -3115,13 +3118,13 @@
         <v>3876</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>179</v>
+        <v>221</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="M37" s="7">
         <v>4</v>
@@ -3130,13 +3133,13 @@
         <v>3876</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3151,13 +3154,13 @@
         <v>312072</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H38" s="7">
         <v>436</v>
@@ -3166,13 +3169,13 @@
         <v>328491</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M38" s="7">
         <v>721</v>
@@ -3181,18 +3184,18 @@
         <v>640563</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3204,28 +3207,28 @@
         <v>345340</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H39" s="7">
         <v>476</v>
       </c>
       <c r="I39" s="7">
-        <v>390447</v>
+        <v>390448</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M39" s="7">
         <v>789</v>
@@ -3234,13 +3237,13 @@
         <v>735787</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>15</v>
+        <v>235</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3255,28 +3258,28 @@
         <v>67409</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="H40" s="7">
         <v>35</v>
       </c>
       <c r="I40" s="7">
-        <v>27616</v>
+        <v>27617</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="M40" s="7">
         <v>52</v>
@@ -3285,19 +3288,19 @@
         <v>95026</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C41" s="7">
         <v>3</v>
@@ -3306,13 +3309,13 @@
         <v>3981</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H41" s="7">
         <v>2</v>
@@ -3321,13 +3324,13 @@
         <v>1760</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>246</v>
+        <v>218</v>
       </c>
       <c r="M41" s="7">
         <v>5</v>
@@ -3336,19 +3339,19 @@
         <v>5741</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42" s="7">
         <v>0</v>
@@ -3360,10 +3363,10 @@
         <v>22</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="H42" s="7">
         <v>2</v>
@@ -3372,13 +3375,13 @@
         <v>1530</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>31</v>
+        <v>251</v>
       </c>
       <c r="M42" s="7">
         <v>2</v>
@@ -3387,13 +3390,13 @@
         <v>1530</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>250</v>
+        <v>74</v>
       </c>
       <c r="P42" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>70</v>
+        <v>252</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3408,28 +3411,28 @@
         <v>416730</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H43" s="7">
         <v>515</v>
       </c>
       <c r="I43" s="7">
-        <v>421353</v>
+        <v>421354</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M43" s="7">
         <v>848</v>
@@ -3438,13 +3441,13 @@
         <v>838084</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3461,13 +3464,13 @@
         <v>1373483</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>82</v>
+        <v>255</v>
       </c>
       <c r="H44" s="7">
         <v>2171</v>
@@ -3476,13 +3479,13 @@
         <v>1538361</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="M44" s="7">
         <v>3548</v>
@@ -3491,13 +3494,13 @@
         <v>2911844</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3512,13 +3515,13 @@
         <v>128701</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="H45" s="7">
         <v>158</v>
@@ -3527,13 +3530,13 @@
         <v>113918</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>183</v>
+        <v>267</v>
       </c>
       <c r="M45" s="7">
         <v>225</v>
@@ -3542,19 +3545,19 @@
         <v>242620</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C46" s="7">
         <v>12</v>
@@ -3563,13 +3566,13 @@
         <v>12825</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>215</v>
+        <v>180</v>
       </c>
       <c r="H46" s="7">
         <v>22</v>
@@ -3578,13 +3581,13 @@
         <v>16073</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>269</v>
+        <v>223</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>270</v>
+        <v>157</v>
       </c>
       <c r="M46" s="7">
         <v>34</v>
@@ -3593,10 +3596,10 @@
         <v>28897</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>272</v>
+        <v>87</v>
       </c>
       <c r="Q46" s="7" t="s">
         <v>273</v>
@@ -3605,7 +3608,7 @@
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C47" s="7">
         <v>4</v>
@@ -3614,13 +3617,13 @@
         <v>3522</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>37</v>
+        <v>274</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H47" s="7">
         <v>21</v>
@@ -3629,13 +3632,13 @@
         <v>14182</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M47" s="7">
         <v>25</v>
@@ -3644,13 +3647,13 @@
         <v>17704</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>213</v>
+        <v>250</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>267</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3665,13 +3668,13 @@
         <v>1518531</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H48" s="7">
         <v>2372</v>
@@ -3680,13 +3683,13 @@
         <v>1682534</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M48" s="7">
         <v>3832</v>
@@ -3695,18 +3698,18 @@
         <v>3201065</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P21D4_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P21D4_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C516BA51-0005-4625-B3D1-01BAB977E9D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E6E963A-6A43-4B04-827C-EFCA48584D1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" xr2:uid="{5DD58123-DBF8-49E1-A0C8-BADD4BD80CCC}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{8C387F61-45E9-42B0-ACB1-746651848F99}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="269">
   <si>
     <t>Población que, necesitándolo, no pudo recibir atención médica mental (psicólogo) en 2023 (Tasa respuesta: 43,83%)</t>
   </si>
@@ -71,805 +71,775 @@
     <t>No lo ha necesitado</t>
   </si>
   <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>Sí lo pudo recibir</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>No lo pudo recibir por otros motivos</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>No lo pudo recibir por motivos económicos</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
     <t>96,87%</t>
   </si>
   <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>Sí lo pudo recibir</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>No lo pudo recibir por otros motivos</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>No lo pudo recibir por motivos económicos</t>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
   </si>
   <si>
     <t>0,14%</t>
   </si>
   <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>52,77%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>68,17%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>46,63%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>70,95%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>65,84%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
   </si>
   <si>
     <t>0,33%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
   </si>
   <si>
     <t>1,75%</t>
   </si>
   <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
   </si>
   <si>
     <t>0,31%</t>
   </si>
   <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>54,74%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>66,89%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>44,77%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
+    <t>0,78%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1284,7 +1254,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DA2E992-20CD-4751-B766-5A2775CAE772}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30358478-CF64-4243-A6BE-B82E57125660}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1405,7 +1375,7 @@
         <v>151</v>
       </c>
       <c r="D4" s="7">
-        <v>123763</v>
+        <v>152374</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1420,7 +1390,7 @@
         <v>224</v>
       </c>
       <c r="I4" s="7">
-        <v>113847</v>
+        <v>122452</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1435,7 +1405,7 @@
         <v>375</v>
       </c>
       <c r="N4" s="7">
-        <v>237610</v>
+        <v>274826</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1456,7 +1426,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>1729</v>
+        <v>1892</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1471,7 +1441,7 @@
         <v>8</v>
       </c>
       <c r="I5" s="7">
-        <v>3516</v>
+        <v>3699</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1486,7 +1456,7 @@
         <v>10</v>
       </c>
       <c r="N5" s="7">
-        <v>5246</v>
+        <v>5591</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1573,7 +1543,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>36</v>
@@ -1588,7 +1558,7 @@
         <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1609,7 +1579,7 @@
         <v>153</v>
       </c>
       <c r="D8" s="7">
-        <v>125492</v>
+        <v>154266</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>40</v>
@@ -1624,7 +1594,7 @@
         <v>233</v>
       </c>
       <c r="I8" s="7">
-        <v>117523</v>
+        <v>126317</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>40</v>
@@ -1639,7 +1609,7 @@
         <v>386</v>
       </c>
       <c r="N8" s="7">
-        <v>243015</v>
+        <v>280583</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>40</v>
@@ -1662,7 +1632,7 @@
         <v>141</v>
       </c>
       <c r="D9" s="7">
-        <v>182679</v>
+        <v>182804</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>42</v>
@@ -1677,7 +1647,7 @@
         <v>283</v>
       </c>
       <c r="I9" s="7">
-        <v>223368</v>
+        <v>207730</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>45</v>
@@ -1692,7 +1662,7 @@
         <v>424</v>
       </c>
       <c r="N9" s="7">
-        <v>406047</v>
+        <v>390534</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>48</v>
@@ -1713,7 +1683,7 @@
         <v>15</v>
       </c>
       <c r="D10" s="7">
-        <v>24266</v>
+        <v>24439</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1728,7 +1698,7 @@
         <v>29</v>
       </c>
       <c r="I10" s="7">
-        <v>23602</v>
+        <v>21917</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1743,7 +1713,7 @@
         <v>44</v>
       </c>
       <c r="N10" s="7">
-        <v>47868</v>
+        <v>46356</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1764,7 +1734,7 @@
         <v>3</v>
       </c>
       <c r="D11" s="7">
-        <v>3251</v>
+        <v>3026</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1773,37 +1743,37 @@
         <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>9</v>
       </c>
       <c r="I11" s="7">
-        <v>5372</v>
+        <v>4986</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>12</v>
       </c>
       <c r="N11" s="7">
-        <v>8622</v>
+        <v>8012</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1815,46 +1785,46 @@
         <v>1</v>
       </c>
       <c r="D12" s="7">
-        <v>1077</v>
+        <v>1004</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
       </c>
       <c r="I12" s="7">
-        <v>1631</v>
+        <v>1500</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M12" s="7">
         <v>4</v>
       </c>
       <c r="N12" s="7">
-        <v>2708</v>
+        <v>2504</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1881,7 +1851,7 @@
         <v>324</v>
       </c>
       <c r="I13" s="7">
-        <v>253973</v>
+        <v>236133</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>40</v>
@@ -1896,7 +1866,7 @@
         <v>484</v>
       </c>
       <c r="N13" s="7">
-        <v>465246</v>
+        <v>447406</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>40</v>
@@ -1910,7 +1880,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1919,25 +1889,25 @@
         <v>109</v>
       </c>
       <c r="D14" s="7">
-        <v>93367</v>
+        <v>90581</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>201</v>
       </c>
       <c r="I14" s="7">
-        <v>140682</v>
+        <v>131902</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>81</v>
@@ -1949,7 +1919,7 @@
         <v>310</v>
       </c>
       <c r="N14" s="7">
-        <v>234049</v>
+        <v>222483</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>83</v>
@@ -1970,7 +1940,7 @@
         <v>3</v>
       </c>
       <c r="D15" s="7">
-        <v>3597</v>
+        <v>3638</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>86</v>
@@ -1985,7 +1955,7 @@
         <v>12</v>
       </c>
       <c r="I15" s="7">
-        <v>7566</v>
+        <v>7090</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>89</v>
@@ -2000,7 +1970,7 @@
         <v>15</v>
       </c>
       <c r="N15" s="7">
-        <v>11163</v>
+        <v>10728</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>92</v>
@@ -2036,7 +2006,7 @@
         <v>2</v>
       </c>
       <c r="I16" s="7">
-        <v>1313</v>
+        <v>1211</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>96</v>
@@ -2051,16 +2021,16 @@
         <v>2</v>
       </c>
       <c r="N16" s="7">
-        <v>1313</v>
+        <v>1211</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2072,46 +2042,46 @@
         <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
       </c>
       <c r="I17" s="7">
-        <v>5705</v>
+        <v>5339</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
       </c>
       <c r="N17" s="7">
-        <v>6405</v>
+        <v>6032</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2123,7 +2093,7 @@
         <v>113</v>
       </c>
       <c r="D18" s="7">
-        <v>97664</v>
+        <v>94912</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>40</v>
@@ -2138,7 +2108,7 @@
         <v>223</v>
       </c>
       <c r="I18" s="7">
-        <v>155266</v>
+        <v>145541</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>40</v>
@@ -2153,7 +2123,7 @@
         <v>336</v>
       </c>
       <c r="N18" s="7">
-        <v>252930</v>
+        <v>240453</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>40</v>
@@ -2167,7 +2137,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2176,46 +2146,46 @@
         <v>120</v>
       </c>
       <c r="D19" s="7">
-        <v>134578</v>
+        <v>129274</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="H19" s="7">
         <v>252</v>
       </c>
       <c r="I19" s="7">
-        <v>191418</v>
+        <v>231930</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="M19" s="7">
         <v>372</v>
       </c>
       <c r="N19" s="7">
-        <v>325996</v>
+        <v>361205</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2227,46 +2197,46 @@
         <v>8</v>
       </c>
       <c r="D20" s="7">
-        <v>10041</v>
+        <v>9668</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="H20" s="7">
         <v>25</v>
       </c>
       <c r="I20" s="7">
-        <v>15070</v>
+        <v>14002</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="M20" s="7">
         <v>33</v>
       </c>
       <c r="N20" s="7">
-        <v>25111</v>
+        <v>23670</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2278,46 +2248,46 @@
         <v>1</v>
       </c>
       <c r="D21" s="7">
-        <v>786</v>
+        <v>750</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
       </c>
       <c r="I21" s="7">
-        <v>673</v>
+        <v>628</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M21" s="7">
         <v>2</v>
       </c>
       <c r="N21" s="7">
-        <v>1459</v>
+        <v>1378</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2329,16 +2299,16 @@
         <v>2</v>
       </c>
       <c r="D22" s="7">
-        <v>1746</v>
+        <v>1684</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2353,22 +2323,22 @@
         <v>31</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
       </c>
       <c r="N22" s="7">
-        <v>1746</v>
+        <v>1684</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2380,7 +2350,7 @@
         <v>131</v>
       </c>
       <c r="D23" s="7">
-        <v>147150</v>
+        <v>141377</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -2395,7 +2365,7 @@
         <v>278</v>
       </c>
       <c r="I23" s="7">
-        <v>207161</v>
+        <v>246560</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -2410,7 +2380,7 @@
         <v>409</v>
       </c>
       <c r="N23" s="7">
-        <v>354311</v>
+        <v>387937</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -2424,7 +2394,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2433,46 +2403,46 @@
         <v>102</v>
       </c>
       <c r="D24" s="7">
-        <v>73103</v>
+        <v>66259</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="H24" s="7">
         <v>153</v>
       </c>
       <c r="I24" s="7">
-        <v>73145</v>
+        <v>66019</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M24" s="7">
         <v>255</v>
       </c>
       <c r="N24" s="7">
-        <v>146247</v>
+        <v>132278</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2484,46 +2454,46 @@
         <v>4</v>
       </c>
       <c r="D25" s="7">
-        <v>3602</v>
+        <v>3246</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>149</v>
+        <v>76</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
       </c>
       <c r="I25" s="7">
-        <v>4480</v>
+        <v>3765</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>152</v>
+        <v>63</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="M25" s="7">
         <v>10</v>
       </c>
       <c r="N25" s="7">
-        <v>8082</v>
+        <v>7011</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2535,46 +2505,46 @@
         <v>2</v>
       </c>
       <c r="D26" s="7">
-        <v>1337</v>
+        <v>1199</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>451</v>
+        <v>412</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
       </c>
       <c r="N26" s="7">
-        <v>1788</v>
+        <v>1612</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>106</v>
+        <v>156</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>161</v>
+        <v>39</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2595,37 +2565,37 @@
         <v>31</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="H27" s="7">
         <v>3</v>
       </c>
       <c r="I27" s="7">
-        <v>1281</v>
+        <v>1166</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>164</v>
+        <v>76</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="M27" s="7">
         <v>3</v>
       </c>
       <c r="N27" s="7">
-        <v>1281</v>
+        <v>1166</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>167</v>
+        <v>33</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2637,7 +2607,7 @@
         <v>108</v>
       </c>
       <c r="D28" s="7">
-        <v>78042</v>
+        <v>70704</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>40</v>
@@ -2652,7 +2622,7 @@
         <v>163</v>
       </c>
       <c r="I28" s="7">
-        <v>79356</v>
+        <v>71362</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>40</v>
@@ -2667,7 +2637,7 @@
         <v>271</v>
       </c>
       <c r="N28" s="7">
-        <v>157398</v>
+        <v>142066</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>40</v>
@@ -2681,7 +2651,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2690,46 +2660,46 @@
         <v>174</v>
       </c>
       <c r="D29" s="7">
-        <v>128178</v>
+        <v>123755</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="H29" s="7">
         <v>188</v>
       </c>
       <c r="I29" s="7">
-        <v>113379</v>
+        <v>105382</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="M29" s="7">
         <v>362</v>
       </c>
       <c r="N29" s="7">
-        <v>241555</v>
+        <v>229138</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2741,46 +2711,46 @@
         <v>3</v>
       </c>
       <c r="D30" s="7">
-        <v>1931</v>
+        <v>1839</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>181</v>
+        <v>129</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="H30" s="7">
         <v>11</v>
       </c>
       <c r="I30" s="7">
-        <v>5657</v>
+        <v>5219</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="M30" s="7">
         <v>14</v>
       </c>
       <c r="N30" s="7">
-        <v>7588</v>
+        <v>7058</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2801,37 +2771,37 @@
         <v>31</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
       </c>
       <c r="I31" s="7">
-        <v>374</v>
+        <v>351</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="M31" s="7">
         <v>1</v>
       </c>
       <c r="N31" s="7">
-        <v>374</v>
+        <v>351</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2852,7 +2822,7 @@
         <v>31</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2867,7 +2837,7 @@
         <v>31</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>193</v>
+        <v>67</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -2882,7 +2852,7 @@
         <v>31</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>68</v>
+        <v>186</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2894,7 +2864,7 @@
         <v>177</v>
       </c>
       <c r="D33" s="7">
-        <v>130109</v>
+        <v>125594</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>40</v>
@@ -2909,7 +2879,7 @@
         <v>200</v>
       </c>
       <c r="I33" s="7">
-        <v>119410</v>
+        <v>110952</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>40</v>
@@ -2924,7 +2894,7 @@
         <v>377</v>
       </c>
       <c r="N33" s="7">
-        <v>249518</v>
+        <v>236546</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>40</v>
@@ -2938,7 +2908,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -2947,46 +2917,46 @@
         <v>267</v>
       </c>
       <c r="D34" s="7">
-        <v>292477</v>
+        <v>292139</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="H34" s="7">
         <v>394</v>
       </c>
       <c r="I34" s="7">
-        <v>292074</v>
+        <v>272758</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="M34" s="7">
         <v>661</v>
       </c>
       <c r="N34" s="7">
-        <v>584552</v>
+        <v>564898</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2998,46 +2968,46 @@
         <v>15</v>
       </c>
       <c r="D35" s="7">
-        <v>16125</v>
+        <v>16100</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="H35" s="7">
         <v>32</v>
       </c>
       <c r="I35" s="7">
-        <v>26411</v>
+        <v>24628</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="M35" s="7">
         <v>47</v>
       </c>
       <c r="N35" s="7">
-        <v>42536</v>
+        <v>40728</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3049,46 +3019,46 @@
         <v>3</v>
       </c>
       <c r="D36" s="7">
-        <v>3470</v>
+        <v>3497</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>213</v>
+        <v>104</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>215</v>
+        <v>99</v>
       </c>
       <c r="H36" s="7">
         <v>6</v>
       </c>
       <c r="I36" s="7">
-        <v>6130</v>
+        <v>5892</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="M36" s="7">
         <v>9</v>
       </c>
       <c r="N36" s="7">
-        <v>9599</v>
+        <v>9389</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>24</v>
+        <v>208</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3109,37 +3079,37 @@
         <v>31</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="H37" s="7">
         <v>4</v>
       </c>
       <c r="I37" s="7">
-        <v>3876</v>
+        <v>3576</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="M37" s="7">
         <v>4</v>
       </c>
       <c r="N37" s="7">
-        <v>3876</v>
+        <v>3576</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>223</v>
+        <v>154</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3151,7 +3121,7 @@
         <v>285</v>
       </c>
       <c r="D38" s="7">
-        <v>312072</v>
+        <v>311736</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>40</v>
@@ -3166,7 +3136,7 @@
         <v>436</v>
       </c>
       <c r="I38" s="7">
-        <v>328491</v>
+        <v>306854</v>
       </c>
       <c r="J38" s="7" t="s">
         <v>40</v>
@@ -3181,7 +3151,7 @@
         <v>721</v>
       </c>
       <c r="N38" s="7">
-        <v>640563</v>
+        <v>618590</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>40</v>
@@ -3195,7 +3165,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3204,46 +3174,46 @@
         <v>313</v>
       </c>
       <c r="D39" s="7">
-        <v>345340</v>
+        <v>292294</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="H39" s="7">
         <v>476</v>
       </c>
       <c r="I39" s="7">
-        <v>390448</v>
+        <v>322764</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="M39" s="7">
         <v>789</v>
       </c>
       <c r="N39" s="7">
-        <v>735787</v>
+        <v>615057</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3255,46 +3225,46 @@
         <v>17</v>
       </c>
       <c r="D40" s="7">
-        <v>67409</v>
+        <v>258269</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="H40" s="7">
         <v>35</v>
       </c>
       <c r="I40" s="7">
-        <v>27617</v>
+        <v>22853</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="M40" s="7">
         <v>52</v>
       </c>
       <c r="N40" s="7">
-        <v>95026</v>
+        <v>281122</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>243</v>
+        <v>206</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3306,46 +3276,46 @@
         <v>3</v>
       </c>
       <c r="D41" s="7">
-        <v>3981</v>
+        <v>3352</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>221</v>
+        <v>22</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="H41" s="7">
         <v>2</v>
       </c>
       <c r="I41" s="7">
-        <v>1760</v>
+        <v>1379</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>247</v>
+        <v>61</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="M41" s="7">
         <v>5</v>
       </c>
       <c r="N41" s="7">
-        <v>5741</v>
+        <v>4732</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>135</v>
+        <v>236</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3366,37 +3336,37 @@
         <v>31</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>159</v>
+        <v>239</v>
       </c>
       <c r="H42" s="7">
         <v>2</v>
       </c>
       <c r="I42" s="7">
-        <v>1530</v>
+        <v>1319</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="M42" s="7">
         <v>2</v>
       </c>
       <c r="N42" s="7">
-        <v>1530</v>
+        <v>1319</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>74</v>
+        <v>184</v>
       </c>
       <c r="P42" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>252</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3408,7 +3378,7 @@
         <v>333</v>
       </c>
       <c r="D43" s="7">
-        <v>416730</v>
+        <v>553916</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>40</v>
@@ -3423,7 +3393,7 @@
         <v>515</v>
       </c>
       <c r="I43" s="7">
-        <v>421354</v>
+        <v>348315</v>
       </c>
       <c r="J43" s="7" t="s">
         <v>40</v>
@@ -3438,7 +3408,7 @@
         <v>848</v>
       </c>
       <c r="N43" s="7">
-        <v>838084</v>
+        <v>902230</v>
       </c>
       <c r="O43" s="7" t="s">
         <v>40</v>
@@ -3461,46 +3431,46 @@
         <v>1377</v>
       </c>
       <c r="D44" s="7">
-        <v>1373483</v>
+        <v>1329482</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="H44" s="7">
         <v>2171</v>
       </c>
       <c r="I44" s="7">
-        <v>1538361</v>
+        <v>1460937</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="M44" s="7">
         <v>3548</v>
       </c>
       <c r="N44" s="7">
-        <v>2911844</v>
+        <v>2790419</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3512,46 +3482,46 @@
         <v>67</v>
       </c>
       <c r="D45" s="7">
-        <v>128701</v>
+        <v>319090</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="H45" s="7">
         <v>158</v>
       </c>
       <c r="I45" s="7">
-        <v>113918</v>
+        <v>103172</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="M45" s="7">
         <v>225</v>
       </c>
       <c r="N45" s="7">
-        <v>242620</v>
+        <v>422262</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3563,46 +3533,46 @@
         <v>12</v>
       </c>
       <c r="D46" s="7">
-        <v>12825</v>
+        <v>11825</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>180</v>
+        <v>261</v>
       </c>
       <c r="H46" s="7">
         <v>22</v>
       </c>
       <c r="I46" s="7">
-        <v>16073</v>
+        <v>14859</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>157</v>
+        <v>263</v>
       </c>
       <c r="M46" s="7">
         <v>34</v>
       </c>
       <c r="N46" s="7">
-        <v>28897</v>
+        <v>26684</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>272</v>
+        <v>33</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>87</v>
+        <v>125</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3614,46 +3584,46 @@
         <v>4</v>
       </c>
       <c r="D47" s="7">
-        <v>3522</v>
+        <v>3381</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>221</v>
+        <v>265</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>274</v>
+        <v>72</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>275</v>
+        <v>74</v>
       </c>
       <c r="H47" s="7">
         <v>21</v>
       </c>
       <c r="I47" s="7">
-        <v>14182</v>
+        <v>13066</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>271</v>
+        <v>33</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="M47" s="7">
         <v>25</v>
       </c>
       <c r="N47" s="7">
-        <v>17704</v>
+        <v>16447</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>277</v>
+        <v>186</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>96</v>
+        <v>267</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3665,7 +3635,7 @@
         <v>1460</v>
       </c>
       <c r="D48" s="7">
-        <v>1518531</v>
+        <v>1663778</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>40</v>
@@ -3680,7 +3650,7 @@
         <v>2372</v>
       </c>
       <c r="I48" s="7">
-        <v>1682534</v>
+        <v>1592034</v>
       </c>
       <c r="J48" s="7" t="s">
         <v>40</v>
@@ -3695,7 +3665,7 @@
         <v>3832</v>
       </c>
       <c r="N48" s="7">
-        <v>3201065</v>
+        <v>3255812</v>
       </c>
       <c r="O48" s="7" t="s">
         <v>40</v>
@@ -3709,7 +3679,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
